--- a/downloads/mbcc-architecture-workbook.xlsx
+++ b/downloads/mbcc-architecture-workbook.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Transit Gateway</t>
+          <t>Transit</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
